--- a/Systems/Requirements/Requirements_WAC_Rev0.xlsx
+++ b/Systems/Requirements/Requirements_WAC_Rev0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Sync\CubeSat\PDR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicholas Mitchell\Documents\Cubesat\Github documents\CubeSat\Systems\Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FB74E1-0A5B-4E53-B1E1-1FE7BF81FB0E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98599A5A-B195-42FC-AA61-A44A20873B1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="1000" firstSheet="1" activeTab="5" xr2:uid="{861017B1-1143-49A6-A9CF-3F774A8AC824}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" tabRatio="1000" activeTab="1" xr2:uid="{861017B1-1143-49A6-A9CF-3F774A8AC824}"/>
   </bookViews>
   <sheets>
     <sheet name="Mission" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="412">
   <si>
     <t>Requirement #</t>
   </si>
@@ -1348,7 +1348,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1392,12 +1392,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1417,7 +1411,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1443,10 +1437,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1483,9 +1473,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1504,9 +1491,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1521,6 +1505,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1846,8 +1836,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1862,25 +1852,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="F2" s="36" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="F2" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1895,18 +1885,18 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="17" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1920,7 +1910,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="19" t="s">
         <v>259</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1934,7 +1924,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1948,7 +1938,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1962,7 +1952,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1976,7 +1966,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2032,14 +2022,12 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="11"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -2056,7 +2044,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2084,7 +2072,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2140,7 +2128,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="22" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2154,7 +2142,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="22" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2168,7 +2156,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="22" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2182,7 +2170,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2196,7 +2184,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="22" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2210,7 +2198,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="22" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2224,12 +2212,12 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="10"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
     </row>
     <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
@@ -2358,7 +2346,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="23" t="s">
         <v>67</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -2428,9 +2416,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2455,12 +2446,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2612,17 +2603,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38ECD168-99AF-493A-9674-D3DE9328ACFC}">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.109375" customWidth="1"/>
-    <col min="3" max="3" width="28" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" style="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="6" max="6" width="14.109375" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" customWidth="1"/>
@@ -2630,25 +2621,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="12"/>
-      <c r="F2" s="36" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="F2" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -2657,30 +2648,30 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="17" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="24" t="s">
         <v>63</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -2688,13 +2679,13 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="24" t="s">
         <v>260</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -2702,13 +2693,13 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="24" t="s">
         <v>63</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -2716,13 +2707,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="24" t="s">
         <v>63</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -2730,13 +2721,13 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>98</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="24" t="s">
         <v>63</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -2744,13 +2735,13 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="14" t="s">
         <v>99</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="24" t="s">
         <v>63</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -2758,13 +2749,13 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="14" t="s">
         <v>100</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="24" t="s">
         <v>63</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -2772,13 +2763,13 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="14" t="s">
         <v>101</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -2786,13 +2777,13 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="14" t="s">
         <v>102</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="25" t="s">
         <v>254</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -2800,13 +2791,13 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="14" t="s">
         <v>103</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="25" t="s">
         <v>49</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -2814,13 +2805,13 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>104</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="25" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -2828,13 +2819,13 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="14" t="s">
         <v>105</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="25" t="s">
         <v>258</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -2842,13 +2833,13 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="14" t="s">
         <v>106</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="25" t="s">
         <v>255</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -2856,13 +2847,13 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="14" t="s">
         <v>107</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="25" t="s">
         <v>255</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -2870,13 +2861,13 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="14" t="s">
         <v>108</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="25" t="s">
         <v>255</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -2884,13 +2875,13 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="14" t="s">
         <v>109</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="25" t="s">
         <v>255</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -2898,13 +2889,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="14" t="s">
         <v>110</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="25" t="s">
         <v>255</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -2912,13 +2903,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="14" t="s">
         <v>111</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="25" t="s">
         <v>255</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -2926,13 +2917,13 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="14" t="s">
         <v>112</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="25" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -2940,13 +2931,13 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="14" t="s">
         <v>113</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="25" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -2954,13 +2945,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="14" t="s">
         <v>256</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="25" t="s">
         <v>65</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -2968,13 +2959,13 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="27" t="s">
         <v>269</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="25" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -2982,13 +2973,13 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="27" t="s">
         <v>322</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="25" t="s">
         <v>373</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -2996,13 +2987,13 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="27" t="s">
         <v>323</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -3010,13 +3001,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="27" t="s">
         <v>324</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D28" s="5" t="s">
@@ -3024,13 +3015,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="27" t="s">
         <v>325</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="25" t="s">
         <v>63</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -3038,13 +3029,13 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="27" t="s">
         <v>326</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="25" t="s">
         <v>373</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -3052,13 +3043,13 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="27" t="s">
         <v>327</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="25" t="s">
         <v>373</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -3066,13 +3057,13 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="27" t="s">
         <v>328</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="25" t="s">
         <v>373</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -3080,13 +3071,13 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="27" t="s">
         <v>329</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="25" t="s">
         <v>64</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -3094,13 +3085,13 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="27" t="s">
         <v>330</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="25" t="s">
         <v>373</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -3108,13 +3099,13 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="27" t="s">
         <v>331</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="25" t="s">
         <v>374</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -3122,13 +3113,13 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="27" t="s">
         <v>332</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D36" s="5" t="s">
@@ -3136,13 +3127,13 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="27" t="s">
         <v>333</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -3150,13 +3141,13 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="27" t="s">
         <v>334</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D38" s="5" t="s">
@@ -3164,13 +3155,13 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="27" t="s">
         <v>335</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="25" t="s">
         <v>374</v>
       </c>
       <c r="D39" s="5" t="s">
@@ -3178,13 +3169,13 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="27" t="s">
         <v>336</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="25" t="s">
         <v>374</v>
       </c>
       <c r="D40" s="5" t="s">
@@ -3192,13 +3183,13 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="27" t="s">
         <v>337</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="25" t="s">
         <v>374</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -3206,13 +3197,13 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="27" t="s">
         <v>338</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="25" t="s">
         <v>374</v>
       </c>
       <c r="D42" s="5" t="s">
@@ -3220,13 +3211,13 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="27" t="s">
         <v>339</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="25" t="s">
         <v>374</v>
       </c>
       <c r="D43" s="5" t="s">
@@ -3234,13 +3225,13 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="27" t="s">
         <v>340</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="25" t="s">
         <v>374</v>
       </c>
       <c r="D44" s="5" t="s">
@@ -3248,13 +3239,13 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="27" t="s">
         <v>341</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="25" t="s">
         <v>374</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -3262,13 +3253,13 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="27" t="s">
         <v>342</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="25" t="s">
         <v>374</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -3276,13 +3267,13 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="27" t="s">
         <v>343</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="25" t="s">
         <v>374</v>
       </c>
       <c r="D47" s="5" t="s">
@@ -3290,13 +3281,13 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="27" t="s">
         <v>344</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="25" t="s">
         <v>374</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -3304,13 +3295,13 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="27" t="s">
         <v>345</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="25" t="s">
         <v>374</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -3318,13 +3309,13 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="27" t="s">
         <v>346</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C50" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D50" s="5" t="s">
@@ -3332,13 +3323,13 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="27" t="s">
         <v>347</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D51" s="5" t="s">
@@ -3346,13 +3337,13 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="27" t="s">
         <v>348</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C52" s="25" t="s">
         <v>20</v>
       </c>
       <c r="D52" s="5" t="s">
@@ -3360,13 +3351,13 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="27" t="s">
         <v>349</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -3374,13 +3365,13 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="27" t="s">
         <v>350</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="C54" s="28" t="s">
+      <c r="C54" s="25" t="s">
         <v>71</v>
       </c>
       <c r="D54" s="5" t="s">
@@ -3388,13 +3379,13 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="27" t="s">
         <v>351</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C55" s="28" t="s">
+      <c r="C55" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -3402,13 +3393,13 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="27" t="s">
         <v>352</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C56" s="28" t="s">
+      <c r="C56" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D56" s="5" t="s">
@@ -3416,13 +3407,13 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="27" t="s">
         <v>353</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="C57" s="28" t="s">
+      <c r="C57" s="25" t="s">
         <v>372</v>
       </c>
       <c r="D57" s="5" t="s">
@@ -3430,13 +3421,13 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="27" t="s">
         <v>354</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="C58" s="28" t="s">
+      <c r="C58" s="25" t="s">
         <v>372</v>
       </c>
       <c r="D58" s="5" t="s">
@@ -3444,323 +3435,308 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="23"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="5"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="23"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="5"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="23"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="5"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+    </row>
+    <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="10"/>
+        <v>135</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C63" s="28" t="s">
+      <c r="A63" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+    </row>
+    <row r="66" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="C77" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="C64" s="28" t="s">
-        <v>369</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C65" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="C66" s="28" t="s">
-        <v>370</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C67" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="10"/>
-    </row>
-    <row r="69" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C69" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C70" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C71" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C72" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A73" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C73" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C74" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C75" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C76" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C77" s="28" t="s">
-        <v>71</v>
-      </c>
       <c r="D77" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A78" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="B78" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="C78" s="29" t="s">
-        <v>371</v>
+    <row r="78" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="C78" s="26" t="s">
+        <v>49</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="B79" s="24" t="s">
-        <v>319</v>
-      </c>
-      <c r="C79" s="29" t="s">
-        <v>364</v>
+      <c r="A79" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="B80" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="C80" s="29" t="s">
-        <v>49</v>
+    <row r="80" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A80" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>368</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="B81" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="C81" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="B82" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="C82" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A83" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="B83" s="24" t="s">
-        <v>363</v>
-      </c>
-      <c r="C83" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A65:D65"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3785,12 +3761,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -4005,12 +3981,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -4147,12 +4123,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -4224,7 +4200,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>175</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -4242,8 +4218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F3DDD1-F0FC-470C-B187-1A324970E555}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D9" sqref="D7:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4255,12 +4231,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -4418,12 +4394,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -4443,7 +4419,7 @@
       <c r="A3" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="30" t="s">
         <v>405</v>
       </c>
       <c r="C3" s="3"/>
@@ -4455,7 +4431,7 @@
       <c r="A4" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="30" t="s">
         <v>406</v>
       </c>
       <c r="C4" s="4"/>
@@ -4467,7 +4443,7 @@
       <c r="A5" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="30" t="s">
         <v>407</v>
       </c>
       <c r="C5" s="4"/>
@@ -4479,7 +4455,7 @@
       <c r="A6" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="30" t="s">
         <v>408</v>
       </c>
       <c r="C6" s="4"/>
@@ -4491,7 +4467,7 @@
       <c r="A7" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="30" t="s">
         <v>409</v>
       </c>
       <c r="C7" s="4"/>
@@ -4503,7 +4479,7 @@
       <c r="A8" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="30" t="s">
         <v>410</v>
       </c>
       <c r="C8" s="4"/>
@@ -4516,7 +4492,7 @@
       <c r="A9" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="30" t="s">
         <v>404</v>
       </c>
       <c r="C9" s="4"/>
@@ -4529,7 +4505,7 @@
       <c r="A10" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="30" t="s">
         <v>403</v>
       </c>
       <c r="C10" s="4"/>
@@ -4542,7 +4518,7 @@
       <c r="A11" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="29" t="s">
         <v>375</v>
       </c>
       <c r="C11" s="4"/>
@@ -4555,7 +4531,7 @@
       <c r="A12" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="29" t="s">
         <v>376</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -4567,7 +4543,7 @@
       <c r="A13" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="29" t="s">
         <v>377</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -4579,7 +4555,7 @@
       <c r="A14" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="29" t="s">
         <v>378</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -4591,7 +4567,7 @@
       <c r="A15" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="29" t="s">
         <v>379</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -4602,7 +4578,7 @@
       <c r="A16" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="29" t="s">
         <v>380</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -4613,7 +4589,7 @@
       <c r="A17" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="29" t="s">
         <v>381</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -4624,7 +4600,7 @@
       <c r="A18" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="29" t="s">
         <v>382</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -4660,12 +4636,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -4860,12 +4836,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
